--- a/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36615" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="288">
   <si>
     <t>Study Title</t>
   </si>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Update definitions to MB-IDF-version=2022-02-18 and MB-SDRF-version=2022-02-18.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Related study]</t>
   </si>
   <si>
@@ -826,153 +822,163 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sample mounting;Sample preservation;Tissue modification;Sectioning instrument;Section thickness;Unit;Matrix;Matrix application</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scan polarity;Scan m/z range;Instrument;Instrument manufacturer;Ion source;Mass analyzer;Solvent;Target material;Spatial resolution;Unit;Pixel size x;Unit;Pixel size y;Unit;Max count of pixel x;Max count of pixel y;Max dimension x;Unit;Max dimension y;Unit;Inlet type;Detector;Detector</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Histology</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Parameter Value[Sample mounting]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Sample preservation]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Tissue modification]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Sectioning instrument]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Section thickness]</t>
+  </si>
+  <si>
+    <t>Unit[]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Matrix]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Matrix application]</t>
+  </si>
+  <si>
+    <t>Histology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Stain]</t>
+  </si>
+  <si>
+    <t>Image Data File</t>
+  </si>
+  <si>
+    <t>Comment[Image Data File md5]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Data processing software]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Data processing software version]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Instrument manufacturer]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Solvent]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Target material]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Spatial resolution]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Pixel size x]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Pixel size y]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Max count of pixel x]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Max count of pixel y]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Max dimension x]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Max dimension y]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Inlet type]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Detector]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Detector mode]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Resolving power]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Resolving power m/z]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Native spectrum identifier format]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Data file content]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Spectrum representation]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Raw data file format]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Instrument software]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Instrument software version]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Line scan direction]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Line scan sequence]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Scan pattern]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Scan type]</t>
+  </si>
+  <si>
+    <t>Parameter Value[Number of scans]</t>
+  </si>
+  <si>
+    <t>A tissue stain image files. High-resolution images are preferable.</t>
+  </si>
+  <si>
+    <t>Enter md5 hash value of Image Data File here.</t>
+  </si>
+  <si>
+    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
+  </si>
+  <si>
+    <t>Reference to Preparation protocol.</t>
+  </si>
+  <si>
+    <t>Sample mounting;Sample preservation;Tissue modification;Sectioning instrument;Section thickness;Matrix;Matrix application</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scan polarity;Scan m/z range;Instrument;Instrument manufacturer;Ion source;Mass analyzer;Solvent;Target material;Spatial resolution;Pixel size x;Pixel size y;Max count of pixel x;Max count of pixel y;Max dimension x;Max dimension y;Inlet type;Detector;Detector mode;Resolving power;Resolving power m/z;Native spectrum identifier format;Data file content;Spectrum representation;Raw data file format;Instrument software;Instrument software version;Line scan direction;Line scan sequence;Scan pattern;Scan type;Number of scans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Stain</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Parameter Value[Sample mounting]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Sample preservation]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Tissue modification]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Sectioning instrument]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Section thickness]</t>
-  </si>
-  <si>
-    <t>Unit[]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Matrix]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Matrix application]</t>
-  </si>
-  <si>
-    <t>Histology</t>
+    <t>Data processing software;Data processing software version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Parameter Value[Stain]</t>
-  </si>
-  <si>
-    <t>Image Data File</t>
-  </si>
-  <si>
-    <t>Comment[Image Data File md5]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Data processing software]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Data processing software version]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Instrument manufacturer]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Solvent]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Target material]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Spatial resolution]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Pixel size x]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Pixel size y]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Max count of pixel x]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Max count of pixel y]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Max dimension x]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Max dimension y]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Inlet type]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Detector]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Detector mode]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Resolving power]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Resolving power m/z]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Native spectrum identifier format]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Data file content]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Spectrum representation]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Raw data file format]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Instrument software]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Instrument software version]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Line scan direction]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Line scan sequence]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Scan pattern]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Scan type]</t>
-  </si>
-  <si>
-    <t>Parameter Value[Number of scans]</t>
-  </si>
-  <si>
-    <t>A tissue stain image files. High-resolution images are preferable.</t>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Image Data File here.</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-  </si>
-  <si>
-    <t>Reference to Preparation protocol.</t>
+    <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
+  </si>
+  <si>
+    <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1155,6 +1161,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1485,109 +1494,109 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="126.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="34">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>206</v>
       </c>
@@ -1595,232 +1604,232 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="B20" s="34">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
   </sheetData>
@@ -1839,13 +1848,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="10"/>
+    <col min="1" max="16384" width="38.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,19 +1865,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>177</v>
       </c>
@@ -1876,24 +1885,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
@@ -1904,7 +1913,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -1915,15 +1924,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1943,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1954,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1965,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>173</v>
       </c>
@@ -1967,7 +1976,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1978,15 +1987,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
@@ -1997,7 +2006,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -2008,10 +2017,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
@@ -2019,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>45</v>
@@ -2034,7 +2043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -2042,13 +2051,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>45</v>
@@ -2057,7 +2066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
@@ -2068,24 +2077,26 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>284</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
@@ -2096,7 +2107,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2107,35 +2118,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2146,46 +2157,48 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>191</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2232,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>ADMIN!$C$2:$C$26</xm:f>
+            <xm:f>ADMIN!$C$2:$C$27</xm:f>
           </x14:formula1>
           <xm:sqref>B40:G40</xm:sqref>
         </x14:dataValidation>
@@ -2240,33 +2253,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="10"/>
+    <col min="1" max="1" width="48.6640625" style="10"/>
     <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="10"/>
+    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>131</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>174</v>
       </c>
@@ -2286,7 +2299,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>175</v>
       </c>
@@ -2295,7 +2308,7 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
@@ -2350,10 +2363,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
@@ -2387,12 +2400,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>173</v>
       </c>
@@ -2400,7 +2413,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
@@ -2408,21 +2421,21 @@
         <v>127</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
@@ -2438,10 +2451,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
@@ -2449,7 +2462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2465,7 +2478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2486,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -2489,35 +2502,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>23</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
@@ -2533,41 +2546,41 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2586,62 +2599,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP105"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:AX4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="34.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="50" width="34.875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="24.25" style="3" customWidth="1"/>
-    <col min="57" max="57" width="23.5" style="3" customWidth="1"/>
-    <col min="58" max="58" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="40.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="48.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="37.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="34.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="50" width="34.88671875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24.21875" style="3" customWidth="1"/>
+    <col min="57" max="57" width="23.44140625" style="3" customWidth="1"/>
+    <col min="58" max="58" width="30.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="40.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="24.875" style="3"/>
+    <col min="67" max="67" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="24.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" ht="15" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -2658,28 +2671,28 @@
         <v>30</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>30</v>
@@ -2694,7 +2707,7 @@
         <v>34</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S4" s="24" t="s">
         <v>35</v>
@@ -2703,94 +2716,94 @@
         <v>36</v>
       </c>
       <c r="U4" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA4" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="AB4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="AD4" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="X4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y4" s="24" t="s">
+      <c r="AE4" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="Z4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AF4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG4" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AB4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AH4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI4" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AJ4" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AK4" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG4" s="24" t="s">
+      <c r="AL4" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="AH4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI4" s="24" t="s">
+      <c r="AM4" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="AJ4" s="24" t="s">
+      <c r="AN4" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="AK4" s="24" t="s">
+      <c r="AO4" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="24" t="s">
+      <c r="AP4" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="24" t="s">
+      <c r="AQ4" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="24" t="s">
+      <c r="AR4" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="AO4" s="24" t="s">
+      <c r="AS4" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="AP4" s="24" t="s">
+      <c r="AT4" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="AQ4" s="24" t="s">
+      <c r="AU4" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="AR4" s="24" t="s">
+      <c r="AV4" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="AS4" s="24" t="s">
+      <c r="AW4" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="AT4" s="24" t="s">
+      <c r="AX4" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="AU4" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV4" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW4" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX4" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="AY4" s="21" t="s">
         <v>37</v>
@@ -2808,22 +2821,22 @@
         <v>30</v>
       </c>
       <c r="BD4" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="BE4" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BF4" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BG4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="BH4" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BI4" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="BJ4" s="21" t="s">
         <v>40</v>
@@ -2847,7 +2860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -2855,7 +2868,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2909,7 +2922,7 @@
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="11"/>
@@ -2929,7 +2942,7 @@
       <c r="BO5" s="11"/>
       <c r="BP5" s="11"/>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -2937,7 +2950,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2991,7 +3004,7 @@
       <c r="BA6" s="11"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BD6" s="11"/>
       <c r="BE6" s="11"/>
@@ -3011,7 +3024,7 @@
       <c r="BO6" s="11"/>
       <c r="BP6" s="11"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -3019,7 +3032,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3073,7 +3086,7 @@
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
@@ -3093,7 +3106,7 @@
       <c r="BO7" s="11"/>
       <c r="BP7" s="11"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -3163,7 +3176,7 @@
       <c r="BO8" s="11"/>
       <c r="BP8" s="11"/>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17"/>
@@ -3233,7 +3246,7 @@
       <c r="BO9" s="11"/>
       <c r="BP9" s="11"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -3303,7 +3316,7 @@
       <c r="BO10" s="11"/>
       <c r="BP10" s="11"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
@@ -3373,7 +3386,7 @@
       <c r="BO11" s="11"/>
       <c r="BP11" s="11"/>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17"/>
@@ -3443,7 +3456,7 @@
       <c r="BO12" s="11"/>
       <c r="BP12" s="11"/>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -3513,7 +3526,7 @@
       <c r="BO13" s="11"/>
       <c r="BP13" s="11"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
@@ -3583,7 +3596,7 @@
       <c r="BO14" s="11"/>
       <c r="BP14" s="11"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -3653,7 +3666,7 @@
       <c r="BO15" s="11"/>
       <c r="BP15" s="11"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3723,7 +3736,7 @@
       <c r="BO16" s="11"/>
       <c r="BP16" s="11"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="17"/>
@@ -3793,7 +3806,7 @@
       <c r="BO17" s="11"/>
       <c r="BP17" s="11"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17"/>
@@ -3863,7 +3876,7 @@
       <c r="BO18" s="11"/>
       <c r="BP18" s="11"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3933,7 +3946,7 @@
       <c r="BO19" s="11"/>
       <c r="BP19" s="11"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -4003,7 +4016,7 @@
       <c r="BO20" s="11"/>
       <c r="BP20" s="11"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -4073,7 +4086,7 @@
       <c r="BO21" s="11"/>
       <c r="BP21" s="11"/>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -4143,7 +4156,7 @@
       <c r="BO22" s="11"/>
       <c r="BP22" s="11"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -4213,7 +4226,7 @@
       <c r="BO23" s="11"/>
       <c r="BP23" s="11"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -4283,7 +4296,7 @@
       <c r="BO24" s="11"/>
       <c r="BP24" s="11"/>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -4353,7 +4366,7 @@
       <c r="BO25" s="11"/>
       <c r="BP25" s="11"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -4423,7 +4436,7 @@
       <c r="BO26" s="11"/>
       <c r="BP26" s="11"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="17"/>
@@ -4493,7 +4506,7 @@
       <c r="BO27" s="11"/>
       <c r="BP27" s="11"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -4563,7 +4576,7 @@
       <c r="BO28" s="11"/>
       <c r="BP28" s="11"/>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -4633,7 +4646,7 @@
       <c r="BO29" s="11"/>
       <c r="BP29" s="11"/>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="17"/>
@@ -4703,7 +4716,7 @@
       <c r="BO30" s="11"/>
       <c r="BP30" s="11"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
@@ -4773,7 +4786,7 @@
       <c r="BO31" s="11"/>
       <c r="BP31" s="11"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="17"/>
@@ -4843,7 +4856,7 @@
       <c r="BO32" s="11"/>
       <c r="BP32" s="11"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
@@ -4913,7 +4926,7 @@
       <c r="BO33" s="11"/>
       <c r="BP33" s="11"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -4983,7 +4996,7 @@
       <c r="BO34" s="11"/>
       <c r="BP34" s="11"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -5053,7 +5066,7 @@
       <c r="BO35" s="11"/>
       <c r="BP35" s="11"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
@@ -5123,7 +5136,7 @@
       <c r="BO36" s="11"/>
       <c r="BP36" s="11"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -5193,7 +5206,7 @@
       <c r="BO37" s="11"/>
       <c r="BP37" s="11"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -5263,7 +5276,7 @@
       <c r="BO38" s="11"/>
       <c r="BP38" s="11"/>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -5333,7 +5346,7 @@
       <c r="BO39" s="11"/>
       <c r="BP39" s="11"/>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -5403,7 +5416,7 @@
       <c r="BO40" s="11"/>
       <c r="BP40" s="11"/>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -5473,7 +5486,7 @@
       <c r="BO41" s="11"/>
       <c r="BP41" s="11"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -5543,7 +5556,7 @@
       <c r="BO42" s="11"/>
       <c r="BP42" s="11"/>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -5613,7 +5626,7 @@
       <c r="BO43" s="11"/>
       <c r="BP43" s="11"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
@@ -5683,7 +5696,7 @@
       <c r="BO44" s="11"/>
       <c r="BP44" s="11"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
@@ -5753,7 +5766,7 @@
       <c r="BO45" s="11"/>
       <c r="BP45" s="11"/>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
@@ -5823,7 +5836,7 @@
       <c r="BO46" s="11"/>
       <c r="BP46" s="11"/>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
@@ -5893,7 +5906,7 @@
       <c r="BO47" s="11"/>
       <c r="BP47" s="11"/>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="17"/>
@@ -5963,7 +5976,7 @@
       <c r="BO48" s="11"/>
       <c r="BP48" s="11"/>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="17"/>
@@ -6033,7 +6046,7 @@
       <c r="BO49" s="11"/>
       <c r="BP49" s="11"/>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
@@ -6103,7 +6116,7 @@
       <c r="BO50" s="11"/>
       <c r="BP50" s="11"/>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17"/>
@@ -6173,7 +6186,7 @@
       <c r="BO51" s="11"/>
       <c r="BP51" s="11"/>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="17"/>
@@ -6243,7 +6256,7 @@
       <c r="BO52" s="11"/>
       <c r="BP52" s="11"/>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="17"/>
@@ -6313,7 +6326,7 @@
       <c r="BO53" s="11"/>
       <c r="BP53" s="11"/>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="17"/>
@@ -6383,7 +6396,7 @@
       <c r="BO54" s="11"/>
       <c r="BP54" s="11"/>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="17"/>
@@ -6453,7 +6466,7 @@
       <c r="BO55" s="11"/>
       <c r="BP55" s="11"/>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="17"/>
@@ -6523,7 +6536,7 @@
       <c r="BO56" s="11"/>
       <c r="BP56" s="11"/>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="17"/>
@@ -6593,7 +6606,7 @@
       <c r="BO57" s="11"/>
       <c r="BP57" s="11"/>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="17"/>
@@ -6663,7 +6676,7 @@
       <c r="BO58" s="11"/>
       <c r="BP58" s="11"/>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="17"/>
@@ -6733,7 +6746,7 @@
       <c r="BO59" s="11"/>
       <c r="BP59" s="11"/>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="17"/>
@@ -6803,7 +6816,7 @@
       <c r="BO60" s="11"/>
       <c r="BP60" s="11"/>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="17"/>
@@ -6873,7 +6886,7 @@
       <c r="BO61" s="11"/>
       <c r="BP61" s="11"/>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17"/>
@@ -6943,7 +6956,7 @@
       <c r="BO62" s="11"/>
       <c r="BP62" s="11"/>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="17"/>
@@ -7013,7 +7026,7 @@
       <c r="BO63" s="11"/>
       <c r="BP63" s="11"/>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="17"/>
@@ -7083,7 +7096,7 @@
       <c r="BO64" s="11"/>
       <c r="BP64" s="11"/>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17"/>
@@ -7153,7 +7166,7 @@
       <c r="BO65" s="11"/>
       <c r="BP65" s="11"/>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="18"/>
@@ -7223,7 +7236,7 @@
       <c r="BO66" s="11"/>
       <c r="BP66" s="11"/>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="18"/>
@@ -7293,7 +7306,7 @@
       <c r="BO67" s="11"/>
       <c r="BP67" s="11"/>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
@@ -7363,7 +7376,7 @@
       <c r="BO68" s="11"/>
       <c r="BP68" s="11"/>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="18"/>
@@ -7433,7 +7446,7 @@
       <c r="BO69" s="11"/>
       <c r="BP69" s="11"/>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="18"/>
@@ -7503,7 +7516,7 @@
       <c r="BO70" s="11"/>
       <c r="BP70" s="11"/>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="18"/>
@@ -7573,7 +7586,7 @@
       <c r="BO71" s="11"/>
       <c r="BP71" s="11"/>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
@@ -7643,7 +7656,7 @@
       <c r="BO72" s="11"/>
       <c r="BP72" s="11"/>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="18"/>
@@ -7713,7 +7726,7 @@
       <c r="BO73" s="11"/>
       <c r="BP73" s="11"/>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="18"/>
@@ -7783,7 +7796,7 @@
       <c r="BO74" s="11"/>
       <c r="BP74" s="11"/>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="18"/>
@@ -7853,7 +7866,7 @@
       <c r="BO75" s="11"/>
       <c r="BP75" s="11"/>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="18"/>
@@ -7923,7 +7936,7 @@
       <c r="BO76" s="11"/>
       <c r="BP76" s="11"/>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="18"/>
@@ -7993,7 +8006,7 @@
       <c r="BO77" s="11"/>
       <c r="BP77" s="11"/>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="18"/>
@@ -8063,7 +8076,7 @@
       <c r="BO78" s="11"/>
       <c r="BP78" s="11"/>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="18"/>
@@ -8133,7 +8146,7 @@
       <c r="BO79" s="11"/>
       <c r="BP79" s="11"/>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="18"/>
@@ -8203,7 +8216,7 @@
       <c r="BO80" s="11"/>
       <c r="BP80" s="11"/>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="18"/>
@@ -8273,7 +8286,7 @@
       <c r="BO81" s="11"/>
       <c r="BP81" s="11"/>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="18"/>
@@ -8343,7 +8356,7 @@
       <c r="BO82" s="11"/>
       <c r="BP82" s="11"/>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="18"/>
@@ -8413,7 +8426,7 @@
       <c r="BO83" s="11"/>
       <c r="BP83" s="11"/>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="18"/>
@@ -8483,7 +8496,7 @@
       <c r="BO84" s="11"/>
       <c r="BP84" s="11"/>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="18"/>
@@ -8553,7 +8566,7 @@
       <c r="BO85" s="11"/>
       <c r="BP85" s="11"/>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="18"/>
@@ -8623,7 +8636,7 @@
       <c r="BO86" s="11"/>
       <c r="BP86" s="11"/>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="18"/>
@@ -8693,7 +8706,7 @@
       <c r="BO87" s="11"/>
       <c r="BP87" s="11"/>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="18"/>
@@ -8763,7 +8776,7 @@
       <c r="BO88" s="11"/>
       <c r="BP88" s="11"/>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="18"/>
@@ -8833,7 +8846,7 @@
       <c r="BO89" s="11"/>
       <c r="BP89" s="11"/>
     </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="18"/>
@@ -8903,7 +8916,7 @@
       <c r="BO90" s="11"/>
       <c r="BP90" s="11"/>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="18"/>
@@ -8973,7 +8986,7 @@
       <c r="BO91" s="11"/>
       <c r="BP91" s="11"/>
     </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="18"/>
@@ -9043,7 +9056,7 @@
       <c r="BO92" s="11"/>
       <c r="BP92" s="11"/>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="18"/>
@@ -9113,7 +9126,7 @@
       <c r="BO93" s="11"/>
       <c r="BP93" s="11"/>
     </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="18"/>
@@ -9183,7 +9196,7 @@
       <c r="BO94" s="11"/>
       <c r="BP94" s="11"/>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="18"/>
@@ -9253,7 +9266,7 @@
       <c r="BO95" s="11"/>
       <c r="BP95" s="11"/>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="18"/>
@@ -9323,7 +9336,7 @@
       <c r="BO96" s="11"/>
       <c r="BP96" s="11"/>
     </row>
-    <row r="97" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="18"/>
@@ -9393,7 +9406,7 @@
       <c r="BO97" s="11"/>
       <c r="BP97" s="11"/>
     </row>
-    <row r="98" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="18"/>
@@ -9463,7 +9476,7 @@
       <c r="BO98" s="11"/>
       <c r="BP98" s="11"/>
     </row>
-    <row r="99" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="18"/>
@@ -9533,7 +9546,7 @@
       <c r="BO99" s="11"/>
       <c r="BP99" s="11"/>
     </row>
-    <row r="100" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="18"/>
@@ -9603,7 +9616,7 @@
       <c r="BO100" s="11"/>
       <c r="BP100" s="11"/>
     </row>
-    <row r="101" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="18"/>
@@ -9673,7 +9686,7 @@
       <c r="BO101" s="11"/>
       <c r="BP101" s="11"/>
     </row>
-    <row r="102" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="18"/>
@@ -9743,7 +9756,7 @@
       <c r="BO102" s="11"/>
       <c r="BP102" s="11"/>
     </row>
-    <row r="103" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="18"/>
@@ -9813,7 +9826,7 @@
       <c r="BO103" s="11"/>
       <c r="BP103" s="11"/>
     </row>
-    <row r="104" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="18"/>
@@ -9883,7 +9896,7 @@
       <c r="BO104" s="11"/>
       <c r="BP104" s="11"/>
     </row>
-    <row r="105" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="18"/>
@@ -9973,30 +9986,30 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="10"/>
-    <col min="3" max="4" width="37.875" style="27"/>
-    <col min="5" max="16384" width="37.875" style="10"/>
+    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="10"/>
+    <col min="3" max="4" width="37.88671875" style="27"/>
+    <col min="5" max="16384" width="37.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>154</v>
@@ -10006,7 +10019,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -10018,7 +10031,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
@@ -10028,7 +10041,7 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
@@ -10038,7 +10051,7 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
@@ -10048,73 +10061,73 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>30</v>
       </c>
@@ -10124,7 +10137,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
@@ -10134,7 +10147,7 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>33</v>
       </c>
@@ -10144,25 +10157,25 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
@@ -10172,7 +10185,7 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>36</v>
       </c>
@@ -10182,247 +10195,247 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>37</v>
       </c>
@@ -10432,7 +10445,7 @@
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>38</v>
       </c>
@@ -10442,7 +10455,7 @@
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>39</v>
       </c>
@@ -10452,7 +10465,7 @@
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>183</v>
       </c>
@@ -10462,41 +10475,41 @@
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>30</v>
       </c>
@@ -10506,21 +10519,21 @@
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>40</v>
       </c>
@@ -10530,7 +10543,7 @@
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>184</v>
       </c>
@@ -10540,7 +10553,7 @@
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>30</v>
       </c>
@@ -10550,7 +10563,7 @@
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>189</v>
       </c>
@@ -10560,7 +10573,7 @@
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>181</v>
       </c>
@@ -10570,7 +10583,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>185</v>
       </c>
@@ -10580,7 +10593,7 @@
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>42</v>
       </c>
@@ -10590,107 +10603,107 @@
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
     </row>
@@ -10706,18 +10719,18 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="3" max="3" width="96.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>47</v>
       </c>
@@ -10728,7 +10741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -10739,7 +10752,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -10747,10 +10760,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -10758,12 +10771,12 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>57</v>
@@ -10772,9 +10785,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
@@ -10783,9 +10796,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>61</v>
@@ -10794,9 +10807,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>63</v>
@@ -10805,9 +10818,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -10816,7 +10829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -10827,7 +10840,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -10838,18 +10851,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -10857,10 +10870,10 @@
         <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -10871,7 +10884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -10879,10 +10892,10 @@
         <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -10893,7 +10906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -10901,10 +10914,10 @@
         <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -10912,10 +10925,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -10923,10 +10936,10 @@
         <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -10934,10 +10947,10 @@
         <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
@@ -10945,10 +10958,10 @@
         <v>112</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -10956,103 +10969,106 @@
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>75</v>
       </c>

--- a/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2599,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP105"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:AX4"/>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="MB_Study_IDF" sheetId="2" r:id="rId2"/>
-    <sheet name="MB_Study_IDF HELP" sheetId="14" r:id="rId3"/>
-    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId4"/>
-    <sheet name="MB_Assay_SDRF HELP" sheetId="15" r:id="rId5"/>
-    <sheet name="ADMIN" sheetId="10" r:id="rId6"/>
+    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId3"/>
+    <sheet name="ADMIN" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ADMIN!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADMIN!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
   <si>
     <t>Study Title</t>
   </si>
@@ -390,228 +388,24 @@
   </si>
   <si>
     <t>software variation design</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t># Fields without line boxes can have multiple values in corresponding columns.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Mass spectrometry protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The range used in the assay.</t>
-  </si>
-  <si>
-    <t>Ion source of the instrument where applicable.</t>
-  </si>
-  <si>
-    <t>The analyser/detector of the mass fragments generated during the assay.</t>
-  </si>
-  <si>
-    <t>‘positive’, ‘negative’ or 'alternating'</t>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Person Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MAGE-TAB Version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Processed Data File md5]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -628,38 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Submission type]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -668,10 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Assay (SDRF) columns</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,20 +475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metabolite target analysis</t>
   </si>
   <si>
@@ -774,10 +518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Uneditable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -790,18 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Submission type: MS Imaging (MSI)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -947,18 +675,6 @@
     <t>Parameter Value[Number of scans]</t>
   </si>
   <si>
-    <t>A tissue stain image files. High-resolution images are preferable.</t>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Image Data File here.</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-  </si>
-  <si>
-    <t>Reference to Preparation protocol.</t>
-  </si>
-  <si>
     <t>Sample mounting;Sample preservation;Tissue modification;Sectioning instrument;Section thickness;Matrix;Matrix application</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -979,6 +695,10 @@
   </si>
   <si>
     <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
+  </si>
+  <si>
+    <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1108,7 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1139,27 +859,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,7 +1196,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1506,52 +1208,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,19 +1262,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,10 +1282,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="34">
-        <v>44741</v>
+        <v>141</v>
+      </c>
+      <c r="B16" s="26">
+        <v>44848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,13 +1294,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1606,9 +1308,9 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="34">
+        <v>211</v>
+      </c>
+      <c r="B20" s="26">
         <v>44741</v>
       </c>
     </row>
@@ -1859,13 +1561,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1874,12 +1576,12 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1887,7 +1589,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,7 +1669,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1992,11 +1694,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="11"/>
@@ -2007,7 +1709,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="11"/>
@@ -2021,20 +1723,20 @@
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>45</v>
@@ -2051,13 +1753,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>45</v>
@@ -2078,26 +1780,26 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11"/>
@@ -2108,7 +1810,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="11"/>
@@ -2172,25 +1874,25 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>228</v>
+      <c r="A43" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>227</v>
+      <c r="A44" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,356 +1948,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.6640625" style="10"/>
-    <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP105"/>
   <sheetViews>
@@ -2643,12 +1995,12 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
@@ -2670,179 +2022,179 @@
       <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>245</v>
+      <c r="F4" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG4" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI4" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ4" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="AM4" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN4" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO4" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP4" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ4" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR4" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS4" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT4" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU4" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV4" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW4" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX4" s="24" t="s">
-        <v>277</v>
+      <c r="U4" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK4" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM4" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO4" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR4" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT4" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV4" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW4" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX4" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="AY4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AZ4" s="24" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="BA4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="BC4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BD4" s="24" t="s">
-        <v>247</v>
+      <c r="BD4" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="BE4" s="21" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="BF4" s="21" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="BG4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="BH4" s="21" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="BI4" s="21" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="BJ4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="BK4" s="21" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="BL4" s="21" t="s">
         <v>30</v>
@@ -2851,10 +2203,10 @@
         <v>41</v>
       </c>
       <c r="BN4" s="21" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="BO4" s="21" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="BP4" s="21" t="s">
         <v>42</v>
@@ -2868,7 +2220,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="13" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2922,7 +2274,7 @@
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="11"/>
@@ -2950,7 +2302,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3004,7 +2356,7 @@
       <c r="BA6" s="11"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="BD6" s="11"/>
       <c r="BE6" s="11"/>
@@ -3032,7 +2384,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="13" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3086,7 +2438,7 @@
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
@@ -9978,743 +9330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D98"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="10"/>
-    <col min="3" max="4" width="37.88671875" style="27"/>
-    <col min="5" max="16384" width="37.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -10760,7 +9376,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10771,12 +9387,12 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>57</v>
@@ -10787,7 +9403,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
@@ -10798,7 +9414,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>61</v>
@@ -10809,7 +9425,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>63</v>
@@ -10820,7 +9436,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -10856,7 +9472,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>94</v>
@@ -10870,7 +9486,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10892,7 +9508,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10969,12 +9585,12 @@
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>114</v>
@@ -10985,7 +9601,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>116</v>
@@ -11015,7 +9631,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MSI_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="217">
   <si>
     <t>Study Title</t>
   </si>
@@ -569,9 +569,6 @@
     <t>Parameter Value[Section thickness]</t>
   </si>
   <si>
-    <t>Unit[]</t>
-  </si>
-  <si>
     <t>Parameter Value[Matrix]</t>
   </si>
   <si>
@@ -698,6 +695,22 @@
   </si>
   <si>
     <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Updated from Unit[] to Unit[length].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[length]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[length]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[length]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1196,7 +1209,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1241,7 @@
     </row>
     <row r="5" spans="1:2" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1298,7 @@
         <v>141</v>
       </c>
       <c r="B16" s="26">
-        <v>44848</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,15 +1321,19 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="26">
         <v>44741</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="26">
+        <v>44852</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1550,9 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:G40"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1785,16 +1800,16 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -1951,9 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP105"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2038,13 +2051,13 @@
         <v>171</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>174</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>30</v>
@@ -2059,7 +2072,7 @@
         <v>34</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S4" s="23" t="s">
         <v>35</v>
@@ -2068,94 +2081,94 @@
         <v>36</v>
       </c>
       <c r="U4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="W4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="X4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y4" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Z4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA4" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AB4" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC4" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AD4" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AE4" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AF4" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG4" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="AF4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" s="23" t="s">
+      <c r="AH4" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI4" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="AH4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI4" s="23" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AK4" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="AK4" s="23" t="s">
+      <c r="AL4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="AL4" s="23" t="s">
+      <c r="AM4" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="AM4" s="23" t="s">
+      <c r="AN4" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AN4" s="23" t="s">
+      <c r="AO4" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AO4" s="23" t="s">
+      <c r="AP4" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="AP4" s="23" t="s">
+      <c r="AQ4" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AQ4" s="23" t="s">
+      <c r="AR4" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="AR4" s="23" t="s">
+      <c r="AS4" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="AS4" s="23" t="s">
+      <c r="AT4" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AT4" s="23" t="s">
+      <c r="AU4" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="AU4" s="23" t="s">
+      <c r="AV4" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="AV4" s="23" t="s">
+      <c r="AW4" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="AW4" s="23" t="s">
+      <c r="AX4" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="AX4" s="23" t="s">
-        <v>206</v>
       </c>
       <c r="AY4" s="21" t="s">
         <v>37</v>
@@ -2173,22 +2186,22 @@
         <v>30</v>
       </c>
       <c r="BD4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="BE4" s="21" t="s">
+      <c r="BF4" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="BG4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="BH4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI4" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="BI4" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="BJ4" s="21" t="s">
         <v>40</v>
@@ -2274,7 +2287,7 @@
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="11"/>
@@ -2356,7 +2369,7 @@
       <c r="BA6" s="11"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD6" s="11"/>
       <c r="BE6" s="11"/>
@@ -2438,7 +2451,7 @@
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
       <c r="BC7" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
@@ -9508,7 +9521,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
